--- a/Procurement (1).xlsx
+++ b/Procurement (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/550cb893095ce6d1/Documents/BI Projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2484F47-5A05-43AB-A8B8-5E20378BEF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E180C4CF-3A7C-4F83-8019-6EC5A5982AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" xr2:uid="{3A58E60E-A6BE-4EED-BEB3-34DEF97226E4}"/>
+    <workbookView xWindow="7956" yWindow="2052" windowWidth="19560" windowHeight="10812" xr2:uid="{1F622D29-526F-48B6-8AC3-8B34BC527CB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -144,11 +133,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -156,13 +145,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -175,12 +158,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -189,13 +187,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -226,39 +224,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -310,7 +308,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -421,6 +419,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -429,13 +434,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -500,51 +498,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB80395E-905B-497A-B7C5-1CCF1A195726}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2C9835-281B-42F2-8733-3790B78F8450}">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection sqref="A1:N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="10.08984375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,7 +562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -605,7 +579,7 @@
         <v>120</v>
       </c>
       <c r="F2" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G2" s="2">
         <v>49</v>
@@ -614,10 +588,10 @@
         <v>50</v>
       </c>
       <c r="I2" s="3">
-        <v>45275</v>
+        <v>42361</v>
       </c>
       <c r="J2" s="3">
-        <v>45267</v>
+        <v>39439</v>
       </c>
       <c r="K2" s="2">
         <v>496</v>
@@ -629,10 +603,10 @@
         <v>13</v>
       </c>
       <c r="N2" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -649,7 +623,7 @@
         <v>150</v>
       </c>
       <c r="F3" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G3" s="2">
         <v>97</v>
@@ -658,10 +632,10 @@
         <v>100</v>
       </c>
       <c r="I3" s="3">
-        <v>45278</v>
+        <v>43457</v>
       </c>
       <c r="J3" s="3">
-        <v>45268</v>
+        <v>39805</v>
       </c>
       <c r="K3" s="2">
         <v>493</v>
@@ -673,10 +647,10 @@
         <v>20</v>
       </c>
       <c r="N3" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -693,7 +667,7 @@
         <v>180</v>
       </c>
       <c r="F4" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G4" s="2">
         <v>145</v>
@@ -702,10 +676,10 @@
         <v>150</v>
       </c>
       <c r="I4" s="3">
-        <v>45281</v>
+        <v>44553</v>
       </c>
       <c r="J4" s="3">
-        <v>45269</v>
+        <v>40170</v>
       </c>
       <c r="K4" s="2">
         <v>490</v>
@@ -717,10 +691,10 @@
         <v>27</v>
       </c>
       <c r="N4" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -737,7 +711,7 @@
         <v>210</v>
       </c>
       <c r="F5" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G5" s="2">
         <v>193</v>
@@ -746,10 +720,10 @@
         <v>200</v>
       </c>
       <c r="I5" s="3">
-        <v>45284</v>
+        <v>45649</v>
       </c>
       <c r="J5" s="3">
-        <v>45270</v>
+        <v>40535</v>
       </c>
       <c r="K5" s="2">
         <v>487</v>
@@ -761,10 +735,10 @@
         <v>34</v>
       </c>
       <c r="N5" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -781,7 +755,7 @@
         <v>240</v>
       </c>
       <c r="F6" s="2">
-        <v>10</v>
+        <v>275</v>
       </c>
       <c r="G6" s="2">
         <v>241</v>
@@ -790,10 +764,10 @@
         <v>250</v>
       </c>
       <c r="I6" s="3">
-        <v>45287</v>
+        <v>46744</v>
       </c>
       <c r="J6" s="3">
-        <v>45271</v>
+        <v>40900</v>
       </c>
       <c r="K6" s="2">
         <v>484</v>
@@ -805,10 +779,10 @@
         <v>41</v>
       </c>
       <c r="N6" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -825,7 +799,7 @@
         <v>270</v>
       </c>
       <c r="F7" s="2">
-        <v>10</v>
+        <v>312</v>
       </c>
       <c r="G7" s="2">
         <v>289</v>
@@ -834,10 +808,10 @@
         <v>300</v>
       </c>
       <c r="I7" s="3">
-        <v>45290</v>
+        <v>11315</v>
       </c>
       <c r="J7" s="3">
-        <v>45272</v>
+        <v>41266</v>
       </c>
       <c r="K7" s="2">
         <v>481</v>
@@ -849,10 +823,10 @@
         <v>48</v>
       </c>
       <c r="N7" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -869,7 +843,7 @@
         <v>300</v>
       </c>
       <c r="F8" s="2">
-        <v>10</v>
+        <v>350</v>
       </c>
       <c r="G8" s="2">
         <v>337</v>
@@ -878,10 +852,10 @@
         <v>350</v>
       </c>
       <c r="I8" s="3">
-        <v>45293</v>
+        <v>37280</v>
       </c>
       <c r="J8" s="3">
-        <v>45273</v>
+        <v>41631</v>
       </c>
       <c r="K8" s="2">
         <v>478</v>
@@ -893,10 +867,10 @@
         <v>55</v>
       </c>
       <c r="N8" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -913,7 +887,7 @@
         <v>330</v>
       </c>
       <c r="F9" s="2">
-        <v>10</v>
+        <v>420</v>
       </c>
       <c r="G9" s="2">
         <v>385</v>
@@ -922,10 +896,10 @@
         <v>400</v>
       </c>
       <c r="I9" s="3">
-        <v>45296</v>
+        <v>38376</v>
       </c>
       <c r="J9" s="3">
-        <v>45274</v>
+        <v>41996</v>
       </c>
       <c r="K9" s="2">
         <v>475</v>
@@ -937,10 +911,10 @@
         <v>62</v>
       </c>
       <c r="N9" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -957,7 +931,7 @@
         <v>360</v>
       </c>
       <c r="F10" s="2">
-        <v>10</v>
+        <v>460</v>
       </c>
       <c r="G10" s="2">
         <v>433</v>
@@ -966,10 +940,10 @@
         <v>450</v>
       </c>
       <c r="I10" s="3">
-        <v>45299</v>
+        <v>39471</v>
       </c>
       <c r="J10" s="3">
-        <v>45275</v>
+        <v>42361</v>
       </c>
       <c r="K10" s="2">
         <v>472</v>
@@ -981,10 +955,10 @@
         <v>69</v>
       </c>
       <c r="N10" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -1001,7 +975,7 @@
         <v>390</v>
       </c>
       <c r="F11" s="2">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="G11" s="2">
         <v>481</v>
@@ -1010,10 +984,10 @@
         <v>500</v>
       </c>
       <c r="I11" s="3">
-        <v>45302</v>
+        <v>40567</v>
       </c>
       <c r="J11" s="3">
-        <v>45276</v>
+        <v>42727</v>
       </c>
       <c r="K11" s="2">
         <v>469</v>
@@ -1025,10 +999,10 @@
         <v>76</v>
       </c>
       <c r="N11" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -1045,7 +1019,7 @@
         <v>420</v>
       </c>
       <c r="F12" s="2">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="G12" s="2">
         <v>529</v>
@@ -1054,10 +1028,10 @@
         <v>550</v>
       </c>
       <c r="I12" s="3">
-        <v>45305</v>
+        <v>41663</v>
       </c>
       <c r="J12" s="3">
-        <v>45277</v>
+        <v>43092</v>
       </c>
       <c r="K12" s="2">
         <v>466</v>
@@ -1069,10 +1043,10 @@
         <v>83</v>
       </c>
       <c r="N12" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1089,7 +1063,7 @@
         <v>450</v>
       </c>
       <c r="F13" s="2">
-        <v>10</v>
+        <v>660</v>
       </c>
       <c r="G13" s="2">
         <v>577</v>
@@ -1098,10 +1072,10 @@
         <v>600</v>
       </c>
       <c r="I13" s="3">
-        <v>45308</v>
+        <v>42759</v>
       </c>
       <c r="J13" s="3">
-        <v>45278</v>
+        <v>43457</v>
       </c>
       <c r="K13" s="2">
         <v>463</v>
@@ -1113,10 +1087,10 @@
         <v>90</v>
       </c>
       <c r="N13" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1133,7 +1107,7 @@
         <v>480</v>
       </c>
       <c r="F14" s="2">
-        <v>10</v>
+        <v>700</v>
       </c>
       <c r="G14" s="2">
         <v>625</v>
@@ -1142,10 +1116,10 @@
         <v>650</v>
       </c>
       <c r="I14" s="3">
-        <v>45311</v>
+        <v>43854</v>
       </c>
       <c r="J14" s="3">
-        <v>45279</v>
+        <v>43822</v>
       </c>
       <c r="K14" s="2">
         <v>460</v>
@@ -1157,10 +1131,10 @@
         <v>97</v>
       </c>
       <c r="N14" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -1177,7 +1151,7 @@
         <v>510</v>
       </c>
       <c r="F15" s="2">
-        <v>10</v>
+        <v>702</v>
       </c>
       <c r="G15" s="2">
         <v>673</v>
@@ -1186,10 +1160,10 @@
         <v>700</v>
       </c>
       <c r="I15" s="3">
-        <v>45314</v>
+        <v>44950</v>
       </c>
       <c r="J15" s="3">
-        <v>45280</v>
+        <v>44188</v>
       </c>
       <c r="K15" s="2">
         <v>457</v>
@@ -1201,10 +1175,10 @@
         <v>104</v>
       </c>
       <c r="N15" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -1221,7 +1195,7 @@
         <v>540</v>
       </c>
       <c r="F16" s="2">
-        <v>10</v>
+        <v>752</v>
       </c>
       <c r="G16" s="2">
         <v>721</v>
@@ -1230,10 +1204,10 @@
         <v>750</v>
       </c>
       <c r="I16" s="3">
-        <v>45317</v>
+        <v>46046</v>
       </c>
       <c r="J16" s="3">
-        <v>45281</v>
+        <v>44553</v>
       </c>
       <c r="K16" s="2">
         <v>454</v>
@@ -1245,10 +1219,10 @@
         <v>111</v>
       </c>
       <c r="N16" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -1265,7 +1239,7 @@
         <v>570</v>
       </c>
       <c r="F17" s="2">
-        <v>10</v>
+        <v>805</v>
       </c>
       <c r="G17" s="2">
         <v>769</v>
@@ -1274,10 +1248,10 @@
         <v>800</v>
       </c>
       <c r="I17" s="3">
-        <v>45320</v>
+        <v>47142</v>
       </c>
       <c r="J17" s="3">
-        <v>45282</v>
+        <v>44918</v>
       </c>
       <c r="K17" s="2">
         <v>451</v>
@@ -1289,10 +1263,10 @@
         <v>118</v>
       </c>
       <c r="N17" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -1309,7 +1283,7 @@
         <v>600</v>
       </c>
       <c r="F18" s="2">
-        <v>10</v>
+        <v>850</v>
       </c>
       <c r="G18" s="2">
         <v>817</v>
@@ -1318,7 +1292,7 @@
         <v>850</v>
       </c>
       <c r="I18" s="3">
-        <v>45323</v>
+        <v>36946</v>
       </c>
       <c r="J18" s="3">
         <v>45283</v>
@@ -1333,10 +1307,10 @@
         <v>125</v>
       </c>
       <c r="N18" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
@@ -1353,7 +1327,7 @@
         <v>630</v>
       </c>
       <c r="F19" s="2">
-        <v>10</v>
+        <v>950</v>
       </c>
       <c r="G19" s="2">
         <v>865</v>
@@ -1362,10 +1336,10 @@
         <v>900</v>
       </c>
       <c r="I19" s="3">
-        <v>45326</v>
+        <v>38041</v>
       </c>
       <c r="J19" s="3">
-        <v>45284</v>
+        <v>45649</v>
       </c>
       <c r="K19" s="2">
         <v>445</v>
@@ -1377,10 +1351,10 @@
         <v>132</v>
       </c>
       <c r="N19" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -1397,7 +1371,7 @@
         <v>660</v>
       </c>
       <c r="F20" s="2">
-        <v>10</v>
+        <v>972</v>
       </c>
       <c r="G20" s="2">
         <v>913</v>
@@ -1406,10 +1380,10 @@
         <v>950</v>
       </c>
       <c r="I20" s="3">
-        <v>45329</v>
+        <v>39137</v>
       </c>
       <c r="J20" s="3">
-        <v>45285</v>
+        <v>46014</v>
       </c>
       <c r="K20" s="2">
         <v>442</v>
@@ -1421,10 +1395,10 @@
         <v>139</v>
       </c>
       <c r="N20" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
@@ -1441,7 +1415,7 @@
         <v>690</v>
       </c>
       <c r="F21" s="2">
-        <v>10</v>
+        <v>1200</v>
       </c>
       <c r="G21" s="2">
         <v>961</v>
@@ -1450,10 +1424,10 @@
         <v>1000</v>
       </c>
       <c r="I21" s="3">
-        <v>45332</v>
+        <v>40233</v>
       </c>
       <c r="J21" s="3">
-        <v>45286</v>
+        <v>46379</v>
       </c>
       <c r="K21" s="2">
         <v>439</v>
@@ -1465,11 +1439,10 @@
         <v>146</v>
       </c>
       <c r="N21" s="2">
-        <v>1000</v>
+        <v>972</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>